--- a/biology/Zoologie/Araschnia/Araschnia.xlsx
+++ b/biology/Zoologie/Araschnia/Araschnia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Araschnia est un genre de lépidoptères (papillons) de la famille des Nymphalidae. 
 La plupart de ses espèces vivent dans le centre et l'Est de l'Asie, et l'une d'entre elles a une large répartition eurasiatique : la Carte géographique.
@@ -512,15 +524,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D'après Funet[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D'après Funet :
 Araschnia burejana (Bremer, 1861) — au Tibet, en Chine, en Corée et au Japon.
 Araschnia davidis Poujade, 1885 — au Tibet et dans l'Ouest et le centre de la Chine.
-Araschnia dohertyi Moore, [1899] — en Chine et dans le Nord de la Birmanie.
-Araschnia doris Leech, [1892] — dans l'Ouest et le centre de la Chine.
+Araschnia dohertyi Moore,  — en Chine et dans le Nord de la Birmanie.
+Araschnia doris Leech,  — dans l'Ouest et le centre de la Chine.
 Araschnia levana (Linnaeus, 1758) — la Carte géographique — paléarctique, de l'Europe au Japon.
-Araschnia oreas Leech, [1892] — dans l'Est du Tibet et l'Ouest de la Chine.
+Araschnia oreas Leech,  — dans l'Est du Tibet et l'Ouest de la Chine.
 Araschnia prorsoides (Blanchard, 1871) — dans l'Himalaya, le Nord de l'Inde et de la Birmanie, l'Ouest de la Chine.
 Araschnia zhangi Chou, 1994 — en Chine.</t>
         </is>
@@ -550,9 +564,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Araschnia a été décrit par l'entomologiste allemand Jakob Hübner en 1819[2]. Son espèce type est Papilio levana Linnaeus, 1758.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Araschnia a été décrit par l'entomologiste allemand Jakob Hübner en 1819. Son espèce type est Papilio levana Linnaeus, 1758.
 Il est classé dans la famille des Nymphalidae, la sous-famille des Nymphalinae et la tribu des Nymphalini.
 </t>
         </is>
